--- a/Technology/Hardware/Analog Devices.xlsx
+++ b/Technology/Hardware/Analog Devices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C89992-FDAE-D64B-ABF0-3CDC9C92CD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B33D2-E516-A64D-B8BC-A8450F9A0A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2540,11 +2540,11 @@
     <v>Powered by Refinitiv</v>
     <v>198.245</v>
     <v>133.47999999999999</v>
-    <v>1.1545000000000001</v>
-    <v>-0.64</v>
-    <v>-3.4229999999999998E-3</v>
-    <v>0.11</v>
-    <v>5.9029999999999998E-4</v>
+    <v>1.1428</v>
+    <v>-1.73</v>
+    <v>-8.9980000000000008E-3</v>
+    <v>-0.48</v>
+    <v>-2.519E-3</v>
     <v>USD</v>
     <v>Analog Devices, Inc. is a semiconductor company. The Company designs, manufactures, tests and markets a portfolio of solutions, including integrated circuits (ICs), software and subsystems that leverage analog, mixed-signal and digital signal processing technologies. Its products include data converters, amplifiers, power management, radio frequency (RF) ICs, edge processors and other sensors. The Company's ICs are designed to address a range of real-world signal-processing applications. Its IC product portfolio includes both general-purpose products used by a range of customers and applications, as well as application-specific products designed for specific target markets. The Company's product offerings include more than 75,000 stock-keeping units (SKUs) that can be aggregated into various general categories, such as analog and mixed-signal, power management and reference, amplifiers/RF and microwave, sensors and actuators, and digital signal processing and system products (DSPs).</v>
     <v>24450</v>
@@ -2552,25 +2552,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Analog Way, WILMINGTON, MA, 01887 US</v>
-    <v>187.2</v>
+    <v>192.64869999999999</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.998692499998</v>
+    <v>45065.961173101561</v>
     <v>0</v>
-    <v>184.64</v>
-    <v>94260550000</v>
+    <v>189.76</v>
+    <v>96380076825</v>
     <v>ANALOG DEVICES, INC.</v>
     <v>ANALOG DEVICES, INC.</v>
-    <v>186.25</v>
-    <v>28.230499999999999</v>
-    <v>186.98</v>
-    <v>186.34</v>
-    <v>186.45</v>
+    <v>192.26</v>
+    <v>29.027699999999999</v>
+    <v>192.26</v>
+    <v>190.53</v>
+    <v>190.05</v>
     <v>505852500</v>
     <v>ADI</v>
     <v>ANALOG DEVICES, INC. (XNAS:ADI)</v>
-    <v>1975284</v>
-    <v>3074949</v>
+    <v>3598301</v>
+    <v>2589257</v>
     <v>1965</v>
   </rv>
   <rv s="2">
@@ -2735,9 +2735,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3158,10 +3158,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP101" sqref="AP101"/>
+      <selection pane="bottomRight" activeCell="AO102" sqref="AO102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5376,15 +5376,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>7.845922986380919</v>
+        <v>8.0223450870000903</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>34.294509017627767</v>
+        <v>35.065649561716114</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>24.962447968721118</v>
+        <v>25.523749362436423</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13509,10 +13509,10 @@
       <c r="AM83" s="1">
         <v>-470725000</v>
       </c>
-      <c r="AT83" s="60" t="s">
+      <c r="AT83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="61"/>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13632,10 +13632,10 @@
       <c r="AM84" s="1">
         <v>171772000</v>
       </c>
-      <c r="AT84" s="62" t="s">
+      <c r="AT84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="63"/>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14801,10 +14801,10 @@
       <c r="AM93" s="1">
         <v>41940000</v>
       </c>
-      <c r="AT93" s="62" t="s">
+      <c r="AT93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="63"/>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1545000000000001</v>
+        <v>1.1428</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.0651225000000002E-2</v>
+        <v>9.0147539999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15426,10 +15426,10 @@
       <c r="AM98" s="1">
         <v>-1544552000</v>
       </c>
-      <c r="AT98" s="62" t="s">
+      <c r="AT98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="63"/>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15680,7 +15680,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>6.5457758495964066E-2</v>
+        <v>6.4110542179608335E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>94260550000</v>
+        <v>96380076825</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.93454224150403598</v>
+        <v>0.93588945782039168</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>100862803000</v>
+        <v>102982329825</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16179,10 +16179,10 @@
       <c r="AM104" s="11">
         <v>1470572000</v>
       </c>
-      <c r="AT104" s="62" t="s">
+      <c r="AT104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="63"/>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.647979298826107E-2</v>
+        <v>8.6094253672773402E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16546,7 +16546,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>80596951557.512177</v>
+        <v>81105563933.731842</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>85431179749.942184</v>
+        <v>85939792126.16185</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16587,14 +16587,14 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>8.647979298826107E-2</v>
+        <v>8.6094253672773402E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+      <c r="AN109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="65"/>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="52" t="s">
@@ -16602,7 +16602,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>70329151690.262344</v>
+        <v>70778061572.043594</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>65197470690.262344</v>
+        <v>65646380572.043594</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>86.276320214308257</v>
+        <v>86.870366153481655</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>186.34</v>
+        <v>190.53</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.53699516896904442</v>
+        <v>-0.54405938091911166</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Analog Devices.xlsx
+++ b/Technology/Hardware/Analog Devices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B33D2-E516-A64D-B8BC-A8450F9A0A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0630EBF-53EB-7241-B131-958979686479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2540,11 +2540,9 @@
     <v>Powered by Refinitiv</v>
     <v>198.245</v>
     <v>133.47999999999999</v>
-    <v>1.1428</v>
-    <v>-1.73</v>
-    <v>-8.9980000000000008E-3</v>
-    <v>-0.48</v>
-    <v>-2.519E-3</v>
+    <v>1.1409</v>
+    <v>0.67</v>
+    <v>3.6129999999999999E-3</v>
     <v>USD</v>
     <v>Analog Devices, Inc. is a semiconductor company. The Company designs, manufactures, tests and markets a portfolio of solutions, including integrated circuits (ICs), software and subsystems that leverage analog, mixed-signal and digital signal processing technologies. Its products include data converters, amplifiers, power management, radio frequency (RF) ICs, edge processors and other sensors. The Company's ICs are designed to address a range of real-world signal-processing applications. Its IC product portfolio includes both general-purpose products used by a range of customers and applications, as well as application-specific products designed for specific target markets. The Company's product offerings include more than 75,000 stock-keeping units (SKUs) that can be aggregated into various general categories, such as analog and mixed-signal, power management and reference, amplifiers/RF and microwave, sensors and actuators, and digital signal processing and system products (DSPs).</v>
     <v>24450</v>
@@ -2552,25 +2550,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Analog Way, WILMINGTON, MA, 01887 US</v>
-    <v>192.64869999999999</v>
+    <v>186.37</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.961173101561</v>
+    <v>45099.928730022657</v>
     <v>0</v>
-    <v>189.76</v>
-    <v>96380076825</v>
+    <v>183.23</v>
+    <v>93318959813</v>
     <v>ANALOG DEVICES, INC.</v>
     <v>ANALOG DEVICES, INC.</v>
-    <v>192.26</v>
-    <v>29.027699999999999</v>
-    <v>192.26</v>
-    <v>190.53</v>
-    <v>190.05</v>
-    <v>505852500</v>
+    <v>183.88</v>
+    <v>26.3734</v>
+    <v>185.44</v>
+    <v>186.11</v>
+    <v>185.6</v>
+    <v>501418300</v>
     <v>ADI</v>
     <v>ANALOG DEVICES, INC. (XNAS:ADI)</v>
-    <v>3598301</v>
-    <v>2589257</v>
+    <v>651</v>
+    <v>4406701</v>
     <v>1965</v>
   </rv>
   <rv s="2">
@@ -2602,8 +2600,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2641,7 +2637,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2659,9 +2655,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2728,18 +2722,14 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
+      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2785,8 +2775,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2795,8 +2783,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3161,7 +3147,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO102" sqref="AO102"/>
+      <selection pane="bottomRight" activeCell="AL115" sqref="AL115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5376,15 +5362,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.0223450870000903</v>
+        <v>7.7675482676684355</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>35.065649561716114</v>
+        <v>33.951933325474677</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>25.523749362436423</v>
+        <v>24.71309236819846</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15054,7 +15040,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1428</v>
+        <v>1.1409</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15305,7 +15291,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.0147539999999998E-2</v>
+        <v>9.0065745000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15680,7 +15666,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>6.4110542179608335E-2</v>
+        <v>6.6074588309450843E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15806,7 +15792,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>96380076825</v>
+        <v>93318959813</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15932,7 +15918,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.93588945782039168</v>
+        <v>0.9339254116905491</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16058,7 +16044,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>102982329825</v>
+        <v>99921212813</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16348,7 +16334,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.6094253672773402E-2</v>
+        <v>8.5893689573474583E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16546,7 +16532,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>81105563933.731842</v>
+        <v>81372699403.637375</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16577,7 +16563,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>85939792126.16185</v>
+        <v>86206927596.067383</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16587,7 +16573,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>8.6094253672773402E-2</v>
+        <v>8.5893689573474583E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16602,7 +16588,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>70778061572.043594</v>
+        <v>71013842700.089005</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16629,7 +16615,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>65646380572.043594</v>
+        <v>65882161700.089005</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16647,7 +16633,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>86.870366153481655</v>
+        <v>87.182377154650368</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16642,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>190.53</v>
+        <v>186.11</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16665,7 +16651,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.54405938091911166</v>
+        <v>-0.53155457979339982</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Analog Devices.xlsx
+++ b/Technology/Hardware/Analog Devices.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0630EBF-53EB-7241-B131-958979686479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFFE252-377D-A246-9094-566DFEF3613D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +545,48 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +922,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,20 +1068,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ADI</a:t>
+              <a:t>Analog Devices</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.48137642496180516"/>
-          <c:y val="3.1647360827259878E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1132,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7996683250414589E-2"/>
-          <c:y val="0.12326647042217721"/>
-          <c:w val="0.87291542288557211"/>
-          <c:h val="0.74139531754335319"/>
+          <c:x val="9.8059800664451816E-2"/>
+          <c:y val="0.15144401672919514"/>
+          <c:w val="0.83416611295681065"/>
+          <c:h val="0.62468434396885619"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1189,6 +1163,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
@@ -1314,7 +1411,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B26A-4446-AE4C-172547B38A17}"/>
+              <c16:uniqueId val="{00000000-6547-3B4E-B2EA-66224991C96E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1323,11 +1420,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1365,132 +1462,255 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>62100000</c:v>
+                  <c:v>29700000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60500000</c:v>
+                  <c:v>23400000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59300000</c:v>
+                  <c:v>18700000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88200000</c:v>
+                  <c:v>38000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77900000</c:v>
+                  <c:v>27900000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33200000</c:v>
+                  <c:v>-12900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62100000</c:v>
+                  <c:v>8200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73900000</c:v>
+                  <c:v>14900000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115400000</c:v>
+                  <c:v>44500000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158200000</c:v>
+                  <c:v>74500000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>223600000</c:v>
+                  <c:v>119300000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>314500000</c:v>
+                  <c:v>171900000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>339500000</c:v>
+                  <c:v>178200000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>241000000</c:v>
+                  <c:v>82400000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400100000</c:v>
+                  <c:v>196800000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1022382000</c:v>
+                  <c:v>607132000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>717734000</c:v>
+                  <c:v>356377000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>378352000</c:v>
+                  <c:v>105299000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>550119000</c:v>
+                  <c:v>298281000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>885366000</c:v>
+                  <c:v>570738000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>743254000</c:v>
+                  <c:v>414787000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>835306000</c:v>
+                  <c:v>549482000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>810134000</c:v>
+                  <c:v>496907000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1080681000</c:v>
+                  <c:v>786284000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>441772000</c:v>
+                  <c:v>247772000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1033864000</c:v>
+                  <c:v>712084000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1205312000</c:v>
+                  <c:v>867394000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>949788000</c:v>
+                  <c:v>651236000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>952841000</c:v>
+                  <c:v>673487000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>906099000</c:v>
+                  <c:v>629320000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1059384000</c:v>
+                  <c:v>696878000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1255468000</c:v>
+                  <c:v>861664000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1663384000</c:v>
+                  <c:v>727259000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2691169000</c:v>
+                  <c:v>1495432000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2526054000</c:v>
+                  <c:v>1363011000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2315845000</c:v>
+                  <c:v>1220761000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2588173000</c:v>
+                  <c:v>1390422000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5596656000</c:v>
+                  <c:v>2748561000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B26A-4446-AE4C-172547B38A17}"/>
+              <c16:uniqueId val="{00000001-6547-3B4E-B2EA-66224991C96E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1499,11 +1719,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1541,9 +1761,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1666,7 +2009,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B26A-4446-AE4C-172547B38A17}"/>
+              <c16:uniqueId val="{00000002-6547-3B4E-B2EA-66224991C96E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1680,11 +2023,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1541325888"/>
-        <c:axId val="1541327616"/>
+        <c:axId val="690582912"/>
+        <c:axId val="690584640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1541325888"/>
+        <c:axId val="690582912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +2055,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1724,7 +2067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1541327616"/>
+        <c:crossAx val="690584640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1732,7 +2075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1541327616"/>
+        <c:axId val="690584640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1781,7 +2124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1541325888"/>
+        <c:crossAx val="690582912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,10 +2142,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34797048876353143"/>
-          <c:y val="0.93105734580099331"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="4.6337396465249668E-2"/>
+          <c:x val="0.34232798807125847"/>
+          <c:y val="0.89708603430554212"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="6.2975419288213333E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2382,22 +2725,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>1555750</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD2311F-62ED-FEB2-46FA-481AA7FE6CC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679A8418-8731-E416-847B-944605B27299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,6 +2759,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3144,10 +3541,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL115" sqref="AL115"/>
+      <selection pane="bottomRight" activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3275,19 +3672,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3296,127 +3693,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3539,206 +3936,206 @@
       <c r="AM3" s="1">
         <v>12013953000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>12701000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>12970000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>13447000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>14358000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>15368000000</v>
+      <c r="AN3" s="24">
+        <v>12651000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>12338000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>13252000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>14609000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>15640000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="64">
         <f>(C3/B3)-1</f>
         <v>3.7220843672456594E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="64">
         <f>(D3/C3)-1</f>
         <v>0.10765550239234445</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="64">
         <f>(E3/D3)-1</f>
         <v>0.18574514038876888</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="64">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>3.2331511839708504E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>7.0136744596382972E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="64">
         <f t="shared" si="0"/>
         <v>0.10820280296784834</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="64">
         <f t="shared" si="0"/>
         <v>5.5049283987353537E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="64">
         <f t="shared" si="0"/>
         <v>0.17451084082496027</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="64">
         <f t="shared" si="0"/>
         <v>0.16088848866876782</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="64">
         <f t="shared" si="0"/>
         <v>0.2171945701357465</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="64">
         <f t="shared" si="0"/>
         <v>0.26797663303239516</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="64">
         <f t="shared" si="0"/>
         <v>4.1631764114592018E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="64">
         <f t="shared" si="0"/>
         <v>-1.0373944511459565E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="64">
         <f t="shared" si="0"/>
         <v>0.17861205915813416</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="64">
         <f t="shared" si="0"/>
         <v>0.77712837837837845</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="64">
         <f t="shared" si="0"/>
         <v>-0.11663492460079294</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="64">
         <f t="shared" si="0"/>
         <v>-0.25007828575067581</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="64">
         <f t="shared" si="0"/>
         <v>0.19898003406133391</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="64">
         <f t="shared" si="0"/>
         <v>0.28649497769710663</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="64">
         <f t="shared" si="0"/>
         <v>-9.3018452426152365E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="64">
         <f t="shared" si="0"/>
         <v>7.7179915673423638E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="64">
         <f t="shared" si="0"/>
         <v>-1.0515798375237417E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="64">
         <f t="shared" si="0"/>
         <v>1.4458879933640034E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="64">
         <f t="shared" si="0"/>
         <v>-0.21991412081855843</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="64">
         <f t="shared" si="0"/>
         <v>0.37053552817299851</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="64">
         <f t="shared" si="0"/>
         <v>8.3945952620728681E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="64">
         <f t="shared" si="0"/>
         <v>-9.7610011625887005E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="64">
         <f t="shared" si="0"/>
         <v>-2.4972030348645147E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="64">
         <f t="shared" si="0"/>
         <v>8.7741567056702552E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="64">
         <f t="shared" si="0"/>
         <v>0.19907999691424072</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="64">
         <f t="shared" si="0"/>
         <v>-3.9832994283705014E-3</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="64">
         <f t="shared" si="0"/>
         <v>0.49280691083702655</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="64">
         <f t="shared" si="0"/>
         <v>0.21408484733146516</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="64">
         <f t="shared" si="0"/>
         <v>-3.3845986625902991E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="64">
         <f t="shared" si="0"/>
         <v>-6.4764611967988994E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="64">
         <f t="shared" si="0"/>
         <v>0.30612401518028731</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="64">
         <f t="shared" si="0"/>
         <v>0.64163480355919411</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>5.7187421991745868E-2</v>
+        <v>5.3025594490006656E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>2.1179434690181909E-2</v>
+        <v>-2.4741127183621869E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>3.6777178103315267E-2</v>
+        <v>7.408007780839676E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>6.7747452963486277E-2</v>
+        <v>0.10239963779052208</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0344059061150599E-2</v>
+        <v>7.0572934492436179E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3753,7 +4150,7 @@
         <v>0.33713234762261529</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.26950264119162648</v>
       </c>
     </row>
@@ -3995,16 +4392,16 @@
         <v>7532474000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4138,7 +4535,7 @@
         <v>0.2288</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.31430903716703401</v>
       </c>
     </row>
@@ -4147,31 +4544,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <v>106900000</v>
@@ -4263,7 +4660,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4418,16 +4815,16 @@
         <v>0.14154525159204467</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4435,118 +4832,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4570,118 +4967,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1">
         <v>406707000</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4803,21 +5200,21 @@
         <v>1266175000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5020,7 +5417,7 @@
         <v>59800000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1">
         <v>-25000</v>
@@ -5038,7 +5435,7 @@
         <v>26100000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1">
         <v>99802000</v>
@@ -5065,19 +5462,19 @@
         <v>3088000</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1">
         <v>26020000</v>
@@ -5226,16 +5623,16 @@
         <v>3979265000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5356,98 +5753,98 @@
       <c r="AM16" s="1">
         <v>8460744000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>8.8881450774503726E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="52">
         <f>AU101/AM3</f>
         <v>7.7675482676684355</v>
       </c>
-      <c r="AU16" s="30">
+      <c r="AU16" s="52">
         <f>AU101/AM28</f>
         <v>33.951933325474677</v>
       </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
+      <c r="AV16" s="54">
+        <f>AU101/AM107</f>
         <v>24.71309236819846</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>4094000</v>
@@ -5492,7 +5889,7 @@
         <v>200408000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5611,10 +6008,19 @@
         <v>2297499000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5732,14 +6138,41 @@
       <c r="AM19" s="10">
         <v>5596656000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="57">
+        <v>6621000000</v>
+      </c>
+      <c r="AO19" s="57">
+        <v>6089000000</v>
+      </c>
+      <c r="AP19" s="57">
+        <v>6665000000</v>
+      </c>
+      <c r="AQ19" s="57">
+        <v>8169000000</v>
+      </c>
+      <c r="AR19" s="57">
+        <v>9103000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-5131681000</v>
       </c>
+      <c r="AT19" s="52">
+        <f>AU101/AN3</f>
+        <v>7.3764097551972174</v>
+      </c>
+      <c r="AU19" s="53">
+        <f>AO116/AN31</f>
+        <v>17.524482109227876</v>
+      </c>
+      <c r="AV19" s="54">
+        <f>AU101/AN106</f>
+        <v>18.556166198647844</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5755,7 +6188,7 @@
         <v>0.48735244519392928</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="3">(F19/E19)-1</f>
         <v>-0.1167800453514739</v>
       </c>
       <c r="G20" s="15">
@@ -5890,8 +6323,28 @@
         <f t="shared" si="3"/>
         <v>1.1623964085862886</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.18302786521094028</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>-8.0350400241655295E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.4596813926753232E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.22565641410352577</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11433467988737922</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6009,8 +6462,34 @@
       <c r="AM21" s="2">
         <v>0.46579999999999999</v>
       </c>
+      <c r="AN21" s="58">
+        <f>AN19/AN3</f>
+        <v>0.52335783732511265</v>
+      </c>
+      <c r="AO21" s="58">
+        <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
+        <v>0.49351596693143135</v>
+      </c>
+      <c r="AP21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.50294295200724415</v>
+      </c>
+      <c r="AQ21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.55917585050311447</v>
+      </c>
+      <c r="AR21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.58203324808184143</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6128,8 +6607,16 @@
       <c r="AM22" s="10">
         <v>3278700000</v>
       </c>
+      <c r="AU22" s="55">
+        <f>(-1*AM98)/AU101</f>
+        <v>1.6551320365069403E-2</v>
+      </c>
+      <c r="AV22" s="56">
+        <f>AM107/AU101</f>
+        <v>4.0464381595839038E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6248,7 +6735,7 @@
         <v>0.27289999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6367,7 +6854,7 @@
         <v>-179951000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6486,7 +6973,7 @@
         <v>3098749000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6605,7 +7092,7 @@
         <v>0.25790000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6724,7 +7211,7 @@
         <v>350188000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6842,10 +7329,25 @@
       <c r="AM28" s="11">
         <v>2748561000</v>
       </c>
+      <c r="AN28" s="59">
+        <v>5324000000</v>
+      </c>
+      <c r="AO28" s="59">
+        <v>4940000000</v>
+      </c>
+      <c r="AP28" s="59">
+        <v>5438000000</v>
+      </c>
+      <c r="AQ28" s="59">
+        <v>6253000000</v>
+      </c>
+      <c r="AR28" s="59">
+        <v>6777000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6861,143 +7363,163 @@
         <v>1.0320855614973263</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="5">(F28/E28)-1</f>
         <v>-0.26578947368421058</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.4623655913978495</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6356589147286822</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81707317073170738</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9865771812080535</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67415730337078661</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6013422818791947</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44090528080469404</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6649214659685958E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.53759820426487093</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3883495145631066</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.085020325203252</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41301562098522238</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.70452919240018297</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8327049639597717</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91342391905619191</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.27324446593708496</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32473293521735247</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.5681023218231021E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58235645704326977</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.68488230715619292</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8739486301922734</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21810629083085709</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.24920393731107204</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4167337186519209E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.5579588024713198E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10735079133032488</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23646319728847809</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.15598307460912841</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0562578118661992</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.8550331944214133E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10436452823931719</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13897970200555232</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9767818691016108</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.93701358638211052</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>-7.2126220886551518E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10080971659919036</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14987127620448693</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="5"/>
+        <v>8.3799776107468471E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7115,8 +7637,28 @@
       <c r="AM30" s="2">
         <v>0.2288</v>
       </c>
+      <c r="AN30" s="60">
+        <f>AN28/AN3</f>
+        <v>0.4208362975258873</v>
+      </c>
+      <c r="AO30" s="60">
+        <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
+        <v>0.40038904198411412</v>
+      </c>
+      <c r="AP30" s="60">
+        <f t="shared" si="6"/>
+        <v>0.41035315424086932</v>
+      </c>
+      <c r="AQ30" s="60">
+        <f t="shared" si="6"/>
+        <v>0.42802382093230201</v>
+      </c>
+      <c r="AR30" s="60">
+        <f t="shared" si="6"/>
+        <v>0.43331202046035805</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7234,8 +7776,23 @@
       <c r="AM31" s="12">
         <v>5.29</v>
       </c>
+      <c r="AN31" s="61">
+        <v>10.62</v>
+      </c>
+      <c r="AO31" s="61">
+        <v>9.85</v>
+      </c>
+      <c r="AP31" s="61">
+        <v>10.84</v>
+      </c>
+      <c r="AQ31" s="61">
+        <v>12.47</v>
+      </c>
+      <c r="AR31" s="61">
+        <v>13.52</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7594,7 +8151,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7602,147 +8159,147 @@
         <v>-3.7037037037037035E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
         <v>2.7472526923076925E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.4199917162673757E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.5526314784764543E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.5268817204301078E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9431523255813953E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.1463414745687088E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19463087542903473</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.56122022296492113</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7541119521895148E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.023382179282986E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.24999890535718194</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8449637746732129E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0109627547434998E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0297048255185946E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1119905970505594E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.877150082992549E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.575771485527679E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7802850138791871E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.3876554648800827E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.2622811455274674E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.10422305129338696</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.1059009753205678</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.4849718959308001E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.4971267313066714E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.7649651312197369E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.6345267911600203E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5637592221848454E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2692610200578906E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.6317671141129527E-3</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.4403292181069959E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12223830321349437</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.977208660024424E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.5129114680293806E-3</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4083396134319912E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8809483484016313E-2</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30374693486971949</v>
       </c>
     </row>
@@ -7751,118 +8308,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7870,118 +8427,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8108,31 +8665,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>73000000</v>
@@ -8204,22 +8761,22 @@
         <v>3134661000</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8941,49 +9498,49 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1">
         <v>193000000</v>
@@ -8992,16 +9549,16 @@
         <v>229000000</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>256209000</v>
@@ -9105,10 +9662,10 @@
         <v>31000000</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1">
         <v>174637000</v>
@@ -9298,34 +9855,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1">
         <v>14000000</v>
@@ -9337,7 +9894,7 @@
         <v>131000000</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1">
         <v>119000000</v>
@@ -9349,25 +9906,25 @@
         <v>4000000</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1">
         <v>1485000</v>
@@ -9417,31 +9974,31 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>3000000</v>
@@ -9456,7 +10013,7 @@
         <v>21000000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1">
         <v>40000000</v>
@@ -9468,13 +10025,13 @@
         <v>51000000</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1">
         <v>13328000</v>
@@ -9774,118 +10331,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10012,16 +10569,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>26300000</v>
@@ -10164,10 +10721,10 @@
         <v>2000000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1">
         <v>14500000</v>
@@ -10185,28 +10742,28 @@
         <v>3745000</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB56" s="1">
         <v>14500000</v>
@@ -10215,16 +10772,16 @@
         <v>14500000</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF56" s="1">
         <v>374839000</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" s="1">
         <v>300000000</v>
@@ -10236,7 +10793,7 @@
         <v>299667000</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL56" s="1">
         <v>569239000</v>
@@ -10250,76 +10807,76 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>121844000</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1">
         <v>6445000</v>
@@ -10369,52 +10926,52 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1">
         <v>51345000</v>
@@ -10450,7 +11007,7 @@
         <v>233249000</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="1">
         <v>247428000</v>
@@ -10471,16 +11028,16 @@
         <v>487417000</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10780,22 +11337,22 @@
         <v>1274487000</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z61" s="1">
         <v>379626000</v>
@@ -10845,118 +11402,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10991,28 +11548,28 @@
         <v>8500000</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1">
         <v>31800000</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1">
         <v>22612000</v>
@@ -11321,118 +11878,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11559,31 +12116,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>13000000</v>
@@ -11979,16 +12536,16 @@
         <v>380206000</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA71" s="1">
         <v>286969000</v>
@@ -12273,118 +12830,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12392,118 +12949,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12511,16 +13068,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>27900000</v>
@@ -12589,7 +13146,7 @@
         <v>712084000</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC76" s="1">
         <v>651236000</v>
@@ -12630,16 +13187,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>41500000</v>
@@ -12749,16 +13306,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>1200000</v>
@@ -12868,76 +13425,76 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1">
         <v>48613000</v>
@@ -12984,158 +13541,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4126659877274793E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8740519202767477E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7491614661980678E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9806437425355646E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1599361200202453E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7736832900896511E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0063218103037708E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8536515219314615E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0399009065682389E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4377747768000411E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5087359259163437E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6685080427538116E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3287985738737189E-2</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6925941861101005E-2</v>
       </c>
     </row>
@@ -13144,16 +13701,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-6300000</v>
@@ -13263,76 +13820,76 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1">
         <v>16561000</v>
@@ -13382,16 +13939,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-2500000</v>
@@ -13495,98 +14052,98 @@
       <c r="AM83" s="1">
         <v>-470725000</v>
       </c>
-      <c r="AT83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="63"/>
+      <c r="AT83" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU83" s="69"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1">
         <v>-100064000</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1">
         <v>-90323000</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD84" s="1">
         <v>17487000</v>
@@ -13618,77 +14175,77 @@
       <c r="AM84" s="1">
         <v>171772000</v>
       </c>
-      <c r="AT84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="65"/>
+      <c r="AT84" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="70"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1">
         <v>-247091000</v>
@@ -13712,39 +14269,39 @@
         <v>-8759000</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ85" s="1">
         <v>7000</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL85" s="1">
         <v>-1000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU85" s="31">
         <f>AM17</f>
         <v>200408000</v>
       </c>
@@ -13754,16 +14311,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>10100000</v>
@@ -13867,10 +14424,10 @@
       <c r="AM86" s="1">
         <v>316275000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU86" s="31">
         <f>AM56</f>
         <v>53628000</v>
       </c>
@@ -13880,16 +14437,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>74400000</v>
@@ -13993,10 +14550,10 @@
       <c r="AM87" s="10">
         <v>4475402000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU87" s="31">
         <f>AM61</f>
         <v>6548625000</v>
       </c>
@@ -14006,16 +14563,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-51000000</v>
@@ -14119,174 +14676,174 @@
       <c r="AM88" s="1">
         <v>-699308000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+      <c r="AT88" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU88" s="33">
         <f>AU85/(AU86+AU87)</f>
         <v>3.0354486566934045E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11248345831495368</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.8730420445177252E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.7266133531709126E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11581173982020095</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10085547050877983</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11738849385908209</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.22591609134360063</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.19609649857597589</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.144270205066345</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.13562489842353323</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.3433535576392722E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10662734762935458</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.13054330091373634</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3623268529342179E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3085555970200284E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.5526235856936744E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5773908995616222E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.024802034528536E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.569657639456474E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.0941620198139243E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7839980783241715E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.039720398637988E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.109016075795438E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.8933377067921641E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6730650429872317E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.2103698966724415E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.4819760285896272E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7235244310165783E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9960426846543211E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.110278728618974E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5963781063967757E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9571719433109361E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6961269346401602E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.8207985331722209E-2</v>
+      </c>
+      <c r="AT89" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11248345831495368</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.8730420445177252E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.7266133531709126E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11581173982020095</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10085547050877983</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11738849385908209</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.22591609134360063</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.19609649857597589</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.144270205066345</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13562489842353323</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3433535576392722E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10662734762935458</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13054330091373634</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3623268529342179E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3085555970200284E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.5526235856936744E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5773908995616222E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.024802034528536E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.569657639456474E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0941620198139243E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7839980783241715E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.039720398637988E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.109016075795438E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.8933377067921641E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6730650429872317E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.2103698966724415E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4819760285896272E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7235244310165783E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9960426846543211E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.110278728618974E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5963781063967757E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9571719433109361E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6961269346401602E-2</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.8207985331722209E-2</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="31">
         <f>AM27</f>
         <v>350188000</v>
       </c>
@@ -14296,46 +14853,46 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1">
         <v>-20500000</v>
@@ -14350,13 +14907,13 @@
         <v>-5245000</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>-133947000</v>
@@ -14407,12 +14964,12 @@
         <v>2425600000</v>
       </c>
       <c r="AM90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="31">
         <f>AM25</f>
         <v>3098749000</v>
       </c>
@@ -14422,16 +14979,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-1500000</v>
@@ -14440,13 +14997,13 @@
         <v>-400000</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1">
         <v>-72700000</v>
@@ -14521,24 +15078,24 @@
         <v>-705485000</v>
       </c>
       <c r="AI91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AT91" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU91" s="33">
         <f>AU89/AU90</f>
         <v>0.1130094757594113</v>
       </c>
@@ -14548,34 +15105,34 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1">
         <v>164300000</v>
@@ -14647,24 +15204,24 @@
         <v>3939979000</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL92" s="1">
         <v>30125000</v>
       </c>
       <c r="AM92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+        <v>91</v>
+      </c>
+      <c r="AT92" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU92" s="33">
         <f>AU88*(1-AU91)</f>
         <v>2.6924141953058735E-2</v>
       </c>
@@ -14674,16 +15231,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-100000</v>
@@ -14692,16 +15249,16 @@
         <v>-60500000</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1">
         <v>-16900000</v>
@@ -14787,26 +15344,26 @@
       <c r="AM93" s="1">
         <v>41940000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="70"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-52600000</v>
@@ -14910,11 +15467,12 @@
       <c r="AM94" s="10">
         <v>-657368000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU94" s="66">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14922,85 +15480,85 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC95" s="1">
         <v>-56500000</v>
@@ -15012,7 +15570,7 @@
         <v>-1995398000</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG95" s="1">
         <v>-378156000</v>
@@ -15035,10 +15593,10 @@
       <c r="AM95" s="1">
         <v>-919116000</v>
       </c>
-      <c r="AT95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="39" cm="1">
+      <c r="AT95" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU95" s="36" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
         <v>1.1409</v>
       </c>
@@ -15048,22 +15606,22 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>2200000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>3200000</v>
@@ -15120,51 +15678,51 @@
         <v>94155000</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15173,16 +15731,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-8700000</v>
@@ -15194,31 +15752,31 @@
         <v>-900000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1">
         <v>-84200000</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1">
         <v>-21831000</v>
@@ -15286,12 +15844,12 @@
       <c r="AM97" s="1">
         <v>-2577015000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+      <c r="AT97" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU97" s="33">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.0065745000000003E-2</v>
+        <v>9.0323592000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15299,61 +15857,61 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1">
         <v>-75007000</v>
@@ -15412,26 +15970,26 @@
       <c r="AM98" s="1">
         <v>-1544552000</v>
       </c>
-      <c r="AT98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AT98" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="70"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-7700000</v>
@@ -15479,10 +16037,10 @@
         <v>-1254422000</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W99" s="1">
         <v>181178000</v>
@@ -15535,10 +16093,10 @@
       <c r="AM99" s="1">
         <v>749963000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU99" s="31">
         <f>AU86+AU87</f>
         <v>6602253000</v>
       </c>
@@ -15548,16 +16106,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-14200000</v>
@@ -15661,10 +16219,10 @@
       <c r="AM100" s="10">
         <v>-4290720000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU100" s="33">
         <f>AU99/AU103</f>
         <v>6.6074588309450843E-2</v>
       </c>
@@ -15674,16 +16232,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-200000</v>
@@ -15787,10 +16345,10 @@
       <c r="AM101" s="1">
         <v>-34706000</v>
       </c>
-      <c r="AT101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="40" cm="1">
+      <c r="AT101" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU101" s="37" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>93318959813</v>
       </c>
@@ -15800,16 +16358,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-14200000</v>
@@ -15913,10 +16471,10 @@
       <c r="AM102" s="10">
         <v>-507392000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU102" s="33">
         <f>AU101/AU103</f>
         <v>0.9339254116905491</v>
       </c>
@@ -15926,16 +16484,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>22700000</v>
@@ -16039,10 +16597,10 @@
       <c r="AM103" s="1">
         <v>1977964000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="41">
+      <c r="AT103" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU103" s="38">
         <f>AU99+AU101</f>
         <v>99921212813</v>
       </c>
@@ -16052,31 +16610,31 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>109100000</v>
@@ -16165,500 +16723,628 @@
       <c r="AM104" s="11">
         <v>1470572000</v>
       </c>
-      <c r="AT104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="65"/>
+      <c r="AT104" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="70"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="10">(B22*(1-$AU$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.88034188034188032</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>-1.0295454545454545</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>23.76923076923077</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.6925465838509317</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.1479820627802688</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.0259459459459459</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>36.666666666666664</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.3030973451327434</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.50933786078098464</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.0519031141868513</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22832475700400234</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27162599960900047</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.69121320992647939</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.1647758929312326</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.72987832258205843</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.0517568850902212E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.16252445734077825</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.37972367096715165</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.24551436508462832</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.26546409875771548</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3390798637426107</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.11605606069907615</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.12239609122699613</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15666812238593364</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.12110162415697523</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.6708885393886881E-2</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.53016695894873966</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.21240088842806837</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.4078144709816467</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>-9.5889571814206764E-2</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.8226267717299893E-2</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29769887589232669</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.57903531539985265</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>23050184.961737782</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>42799341.250291646</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>1133635.1217862368</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>-29049547.317320645</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>34714305.869884908</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>111495635.36769193</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>16167104.72516489</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>-66864451.944962323</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>153023588.3577534</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>82878405.672740847</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>345549998.33803898</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>559344770.17338288</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>495466618.86554861</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>182502985.60515869</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>362386341.82342613</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>623217874.38350117</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>558873579.63132858</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>556793693.21910226</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>661765616.95768189</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>507793252.41347396</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>303591980.14263177</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>923032109.11532354</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>857556016.74901712</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>734782767.51940858</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>836162389.0424813</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>776522177.64265513</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>795274094.15057492</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>1114807601.8580401</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>1532729859.8040693</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>2910159114.1318641</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>2017889086.6901445</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>1869974231.0003166</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="10"/>
+        <v>2145558252.1104484</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>3622701831.8276176</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$106)</f>
+        <v>3822194687.7410035</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
+        <v>4032673101.2321162</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>4254742018.6522474</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>4489039699.1895981</v>
+      </c>
+      <c r="AR105" s="27">
+        <f t="shared" si="11"/>
+        <v>4736239549.3213749</v>
+      </c>
+      <c r="AS105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU105" s="40">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.5893689573474583E-2</v>
+        <v>8.6134499439102771E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>23400000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>44000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-1300000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-32200000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>22300000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>92500000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-2400000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-90400000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>117800000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>57800000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>349800000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>429668000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>546377000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>168714000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>365228000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>631800000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>587247000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>491805000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>678555000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>511960000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>376053000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>879618000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>777533000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>682366000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>789271000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>693689000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>753838000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1153498000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>908494000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>2187485000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>1977728000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>1842795000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>2391393000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>3776094000</v>
-      </c>
-      <c r="AN106" s="42">
-        <f>AM106*(1+$AU$106)</f>
-        <v>3967342245.7791014</v>
-      </c>
-      <c r="AO106" s="42">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>4168276662.3774629</v>
-      </c>
-      <c r="AP106" s="42">
-        <f t="shared" si="9"/>
-        <v>4379387826.347867</v>
-      </c>
-      <c r="AQ106" s="42">
-        <f t="shared" si="9"/>
-        <v>4601191160.5274143</v>
-      </c>
-      <c r="AR106" s="42">
-        <f t="shared" si="9"/>
-        <v>4834228192.4300041</v>
-      </c>
-      <c r="AS106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.88034188034188032</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.0295454545454545</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>23.76923076923077</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.6925465838509317</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>3.1479820627802688</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.0259459459459459</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.3030973451327434</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.50933786078098464</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>5.0519031141868513</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.22832475700400234</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.27162599960900047</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.69121320992647939</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.1647758929312326</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.72987832258205843</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>-7.0517568850902212E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.16252445734077825</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.37972367096715165</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.24551436508462832</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.26546409875771548</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.3390798637426107</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.11605606069907615</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.12239609122699613</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.15666812238593364</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.12110162415697523</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="12"/>
+        <v>8.6708885393886881E-2</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.53016695894873966</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.21240088842806837</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.4078144709816467</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="12"/>
+        <v>-9.5889571814206764E-2</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="12"/>
+        <v>-6.8226267717299893E-2</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.29769887589232669</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.57903531539985265</v>
+      </c>
+      <c r="AN106" s="63">
+        <v>5029000000</v>
+      </c>
+      <c r="AO106" s="63">
+        <v>4864000000</v>
+      </c>
+      <c r="AP106" s="63">
+        <v>5246000000</v>
+      </c>
+      <c r="AQ106" s="63">
+        <v>6651000000</v>
+      </c>
+      <c r="AR106" s="63">
+        <v>7461000000</v>
+      </c>
+      <c r="AS106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU106" s="42">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.0647109361975987E-2</v>
+        <v>5.5067423479547961E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="43"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="43"/>
-      <c r="AR107" s="46">
+      <c r="A107" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>23400000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>44000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-1300000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-32200000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>22300000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>92500000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-2400000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-90400000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>117800000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>57800000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>349800000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>429668000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>546377000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>168714000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>365228000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>631800000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>587247000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>491805000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>678555000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>511960000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>376053000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>879618000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>777533000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>682366000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>789271000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>693689000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>753838000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1153498000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>908494000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>2187485000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>1977728000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>1842795000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>2391393000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>3776094000</v>
+      </c>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="65">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>81372699403.637375</v>
-      </c>
-      <c r="AS107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="49">
+        <v>125093442657.82111</v>
+      </c>
+      <c r="AS107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT107" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="46">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>3967342245.7791014</v>
-      </c>
-      <c r="AO108" s="46">
-        <f t="shared" si="10"/>
-        <v>4168276662.3774629</v>
-      </c>
-      <c r="AP108" s="46">
-        <f t="shared" si="10"/>
-        <v>4379387826.347867</v>
-      </c>
-      <c r="AQ108" s="46">
+      <c r="AN108" s="65">
+        <f t="shared" ref="AN108:AP108" si="13">AN107+AN106</f>
+        <v>5029000000</v>
+      </c>
+      <c r="AO108" s="65">
+        <f t="shared" si="13"/>
+        <v>4864000000</v>
+      </c>
+      <c r="AP108" s="65">
+        <f t="shared" si="13"/>
+        <v>5246000000</v>
+      </c>
+      <c r="AQ108" s="65">
         <f>AQ107+AQ106</f>
-        <v>4601191160.5274143</v>
-      </c>
-      <c r="AR108" s="46">
+        <v>6651000000</v>
+      </c>
+      <c r="AR108" s="65">
         <f>AR107+AR106</f>
-        <v>86206927596.067383</v>
-      </c>
-      <c r="AS108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="51">
+        <v>132554442657.82111</v>
+      </c>
+      <c r="AS108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT108" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU108" s="42">
         <f>AU105</f>
-        <v>8.5893689573474583E-2</v>
+        <v>8.6134499439102771E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="61"/>
+      <c r="AN109" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO109" s="67"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="40">
+      <c r="AN110" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO110" s="37">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>71013842700.089005</v>
+        <v>105322040008.70697</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="40">
+      <c r="AN111" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO111" s="37">
         <f>AM40</f>
         <v>1470572000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="40">
+      <c r="AN112" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO112" s="37">
         <f>AU99</f>
         <v>6602253000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="40">
+      <c r="AN113" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO113" s="37">
         <f>AO110+AO111-AO112</f>
-        <v>65882161700.089005</v>
+        <v>100190359008.70697</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="53">
+      <c r="AN114" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO114" s="46">
         <f>AM34*(1+(5*AS16))</f>
         <v>755682098.26651657</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO115" s="55">
+      <c r="AN115" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO115" s="48">
         <f>AO113/AO114</f>
-        <v>87.182377154650368</v>
+        <v>132.58268157805625</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AN116" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO116" s="49" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
         <v>186.11</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="58">
+      <c r="AN117" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO117" s="50">
         <f>AO115/AO116-1</f>
-        <v>-0.53155457979339982</v>
+        <v>-0.28761118919963335</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="59" t="str">
+      <c r="AN118" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO118" s="51" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16751,8 +17437,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/6281/000000628122000250/0000006281-22-000250-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/6281/000000628122000250/0000006281-22-000250-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:ADI/explorer/revenue_proj" xr:uid="{5E06FD54-BE95-8F4A-AC92-718AACB8FE1A}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{94DE70BE-D3D2-B241-AEB6-BFE19DB428F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>